--- a/smoy_pivot_table.xlsx
+++ b/smoy_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>

--- a/smoy_pivot_table.xlsx
+++ b/smoy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>player</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
   </si>
   <si>
     <t>Manu Ginóbili</t>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -733,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -741,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -765,14 +762,6 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
         <v>1</v>
       </c>
     </row>

--- a/smoy_pivot_table.xlsx
+++ b/smoy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>player</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Lamar Odom</t>
-  </si>
-  <si>
-    <t>Leandro Barbosa</t>
   </si>
   <si>
     <t>Lou Williams</t>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -690,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -730,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -754,14 +751,6 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
         <v>1</v>
       </c>
     </row>

--- a/smoy_pivot_table.xlsx
+++ b/smoy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>player</t>
   </si>
@@ -91,7 +91,13 @@
     <t>Lamar Odom</t>
   </si>
   <si>
+    <t>Leandro Barbosa</t>
+  </si>
+  <si>
     <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
   </si>
   <si>
     <t>Manu Ginóbili</t>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -719,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -735,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -751,6 +757,22 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
